--- a/medicine/Psychotrope/Études_d'agronomie/Études_d'agronomie.xlsx
+++ b/medicine/Psychotrope/Études_d'agronomie/Études_d'agronomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tudes_d%27agronomie</t>
+          <t>Études_d'agronomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les études d'agrologie recouvre des formations secondaires et supérieures en matière d'agronomie, d’œnologie, d'horticulture, d'environnement et de médecine vétérinaire. Les diplômes étrangers ne donne pas les titres reconnus par les diplômes français, comme le titre d’œnologue, mais peuvent obtenir des équivalences.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tudes_d%27agronomie</t>
+          <t>Études_d'agronomie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,54 +525,269 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Afrique du Sud
-La formation est dispensée à l'Université de Stellenbosch, sur un cursus en 4 ans, et comporte l’ensemble des matières, biologie, chimie, œnologie, pédologie, viticulture, mathématiques[1].
-Allemagne
-Hesse
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation est dispensée à l'Université de Stellenbosch, sur un cursus en 4 ans, et comporte l’ensemble des matières, biologie, chimie, œnologie, pédologie, viticulture, mathématiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hesse
 Hochschule RheinMain, Fachbereich Geisenheim avec Forschungsanstalt Geisenheim
 Rhénanie-Palatinat
-L'éducation du vin au centre de service de la Rhénanie-Palatinat, Mussbach - Neustadt an der Weinstraße[2]
-DLZ Ländlicher Raum[3]
-Fachhochschule – viticulture[4]
+L'éducation du vin au centre de service de la Rhénanie-Palatinat, Mussbach - Neustadt an der Weinstraße
+DLZ Ländlicher Raum
+Fachhochschule – viticulture
 Deutsche Weinakademie
 Bade-Wurtemberg
 Université de Hohenheim
 Hochschule Heilbronn
-Staatliche Lehr- und Versuchsanstalt für Wein- und Obstbau Weinsberg[5]
+Staatliche Lehr- und Versuchsanstalt für Wein- und Obstbau Weinsberg
 Bavière
-Bayerische Landesanstalt für Weinbau und Gartenbau
-Autriche
-Vienne
-Universität für Bodenkultur (Vienne (Autriche))[6]
+Bayerische Landesanstalt für Weinbau und Gartenbau</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autriche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vienne
+Universität für Bodenkultur (Vienne (Autriche))
 Basse-Autriche
-Höhere Bundeslehranstalt und Bundesamt für Wein- und Obstbau[7]
-Weinbauschule und Weinmanagement Krems[8]
-Landwirtschaftliche Koordinationsstelle für Bildung und Forschung (LAKO)[9]
+Höhere Bundeslehranstalt und Bundesamt für Wein- und Obstbau
+Weinbauschule und Weinmanagement Krems
+Landwirtschaftliche Koordinationsstelle für Bildung und Forschung (LAKO)
 Burgenland
-Fachhochschulstudiengänge Burgenland[10]
-Fachschule Eisenstadt[11]
+Fachhochschulstudiengänge Burgenland
+Fachschule Eisenstadt
 Master of Wine
-Weinakademie Österreich[12] in Rust und Außenstelle in Krems an der Donau
+Weinakademie Österreich in Rust und Außenstelle in Krems an der Donau
 Styrie
-Weinbauschule Silberberg[13]
-Australie
-Les écoles d'Australie proposent principalement des masters en viticulture.
+Weinbauschule Silberberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les écoles d'Australie proposent principalement des masters en viticulture.
 Université Charles-Sturt à Wagga Wagga, dans le New South Wales
 Université Curtin à Perth, dans l'Australie occidentale
 Northern Melbourne Institute of Technology - Preston, Victoria
 Université d'Adélaïde à Adélaïde
-Queensland College of Wine Tourism à Stanthorpe dans le Queensland
-Canada
-Brock University à Sainte Catharines en Ontario
-Québec
-Dans la province, on parle généralement de formations de quatre années en agronomie ou en génie agroenvironnemental (anciennement génie rural ou génie agricole).
+Queensland College of Wine Tourism à Stanthorpe dans le Queensland</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brock University à Sainte Catharines en Ontario</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la province, on parle généralement de formations de quatre années en agronomie ou en génie agroenvironnemental (anciennement génie rural ou génie agricole).
 Ces programmes d'études actuellement offerts peuvent être cités:
-Baccalauréat en agronomie[14] de l'Université Laval, Ville de Québec (francophone)
-Baccalauréat en génie agroenvironnemental[15] de l'Université Laval, Ville de Québec (francophone)
-Bachelor of Science (B.Sc.) in Agricultural and Environmental Sciences[16] de l'Université McGill, Montréal (anglophone)
+Baccalauréat en agronomie de l'Université Laval, Ville de Québec (francophone)
+Baccalauréat en génie agroenvironnemental de l'Université Laval, Ville de Québec (francophone)
+Bachelor of Science (B.Sc.) in Agricultural and Environmental Sciences de l'Université McGill, Montréal (anglophone)
 Pour exercer la profession d'agronome ou d'ingénieur, il faut être respectivement membre de l'Ordre des agronomes du Québec ou bien de l'Ordre des ingénieurs du Québec.
-États-Unis
-Dans l'état de New York :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans l'état de New York :
 Université Cornell
 Finger Lakes Community College à Canandaigua
 Dans l'état de Californie :
@@ -578,26 +805,232 @@
 Surry Community College à Dobson
 Grayson Community College dans le comté de Grayson
 Université du Missouri-Columbia
-Université d'État de Kent à Ashtabula, dans l'Ohio
-France
-L'enseignement agricole dépend du ministère de l'Agriculture. L'agronomie est enseignée parmi les autres disciplines, comme une science agricole durant le cursus scolaire et universitaire. L'enseignement agricole en France permet d'accéder au titre d'ingénieur agronome. Le cycle comprend des formations secondaires et supérieures en matière d'agronomie, d’œnologie, d'horticulture, d'environnement et de médecine vétérinaire. Il est régi par le livre VIII du code rural et de la pêche maritime, mais certaines dispositions du code de l'éducation lui sont applicables.
-Italie
-Province autonome de Bolzano
-Fachschule für Obst-, Wein- und Gartenbau Laimburg[17]
-Fach Oberschule für Landwirtschaft in Auer[18]
+Université d'État de Kent à Ashtabula, dans l'Ohio</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enseignement agricole dépend du ministère de l'Agriculture. L'agronomie est enseignée parmi les autres disciplines, comme une science agricole durant le cursus scolaire et universitaire. L'enseignement agricole en France permet d'accéder au titre d'ingénieur agronome. Le cycle comprend des formations secondaires et supérieures en matière d'agronomie, d’œnologie, d'horticulture, d'environnement et de médecine vétérinaire. Il est régi par le livre VIII du code rural et de la pêche maritime, mais certaines dispositions du code de l'éducation lui sont applicables.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Province autonome de Bolzano
+Fachschule für Obst-, Wein- und Gartenbau Laimburg
+Fach Oberschule für Landwirtschaft in Auer
 Province de Padoue
-Université de Padoue
-Liban
-L'Université Saint-Esprit de Kaslik propose un master en œnologie dans la faculté d'agronomie, en cours du soir[19].
-Nouvelle-Zélande
-Université de Lincoln, à Lincoln dans le Canterbury.
-Institut technologique de l'Est, région d'Hawke's Bay
-Royaume-Uni
-Blake Hall College, à Londres
-Plumpton College dans le Sussex[20]
-Suisse
-École d'ingénieurs de Changins à Nyon[21]
-Viticulture sur la Hochschule Wädenswil[22]</t>
+Université de Padoue</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liban</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Université Saint-Esprit de Kaslik propose un master en œnologie dans la faculté d'agronomie, en cours du soir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Université de Lincoln, à Lincoln dans le Canterbury.
+Institut technologique de l'Est, région d'Hawke's Bay</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Blake Hall College, à Londres
+Plumpton College dans le Sussex</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Études_d'agronomie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_d%27agronomie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>École d'ingénieurs de Changins à Nyon
+Viticulture sur la Hochschule Wädenswil</t>
         </is>
       </c>
     </row>
